--- a/medicine/Sexualité et sexologie/Affaire_Ronald_Léger/Affaire_Ronald_Léger.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_Ronald_Léger/Affaire_Ronald_Léger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_Ronald_L%C3%A9ger</t>
+          <t>Affaire_Ronald_Léger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Ronald Léger est une affaire judiciaire de mœurs mettant en cause Ronald Léger, un prêtre catholique canadien. En 2016, il est condamné à deux ans de prison pour avoir agressé sexuellement trois enfants âgés de 9 à 18 ans entre 1980 et 2004.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_Ronald_L%C3%A9ger</t>
+          <t>Affaire_Ronald_Léger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prêtre Ronald Léger, surnommé father Ron, est né à Cornwall, il est membre des Clercs de Saint-Viateur[1]. 
-Le 5 février 2015, la police de Winnipeg au Manitoba informe les responsables de l'archidiocèse de Saint-Boniface qu'une enquête est en cours concernant des allégations d'agressions sexuelles de la part du prêtre Ronald Léger. Immédiatement, ce 5 février 2015, il est suspendu de ses fonctions. Puis Ronald Léger est défroqué par l'Église catholique en 2015[2],[3]. En 2016, Ronald Léger est condamné à deux ans de prison pour avoir agressé sexuellement trois garçons[4].
-L'ancien prêtre Ronald Léger décède en juillet 2019, à l'âge de 81 ans, avant un nouveau jugement pour des allégations d'agressions sexuelles de 1983 à 2013[5], sur quatre garçons âgés de 10 à 12 ans à l'époque des faits[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prêtre Ronald Léger, surnommé father Ron, est né à Cornwall, il est membre des Clercs de Saint-Viateur. 
+Le 5 février 2015, la police de Winnipeg au Manitoba informe les responsables de l'archidiocèse de Saint-Boniface qu'une enquête est en cours concernant des allégations d'agressions sexuelles de la part du prêtre Ronald Léger. Immédiatement, ce 5 février 2015, il est suspendu de ses fonctions. Puis Ronald Léger est défroqué par l'Église catholique en 2015,. En 2016, Ronald Léger est condamné à deux ans de prison pour avoir agressé sexuellement trois garçons.
+L'ancien prêtre Ronald Léger décède en juillet 2019, à l'âge de 81 ans, avant un nouveau jugement pour des allégations d'agressions sexuelles de 1983 à 2013, sur quatre garçons âgés de 10 à 12 ans à l'époque des faits.
 </t>
         </is>
       </c>
